--- a/src/pages/excel/dados.xlsx
+++ b/src/pages/excel/dados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Nome</t>
   </si>
@@ -63,13 +63,49 @@
   </si>
   <si>
     <t>Besta</t>
+  </si>
+  <si>
+    <t>NomeCompleto</t>
+  </si>
+  <si>
+    <t>TANJIRO</t>
+  </si>
+  <si>
+    <t>NEZUKO</t>
+  </si>
+  <si>
+    <t>ZENITSU</t>
+  </si>
+  <si>
+    <t>INOSUKE</t>
+  </si>
+  <si>
+    <t>Não Tem</t>
+  </si>
+  <si>
+    <t>GIYU</t>
+  </si>
+  <si>
+    <t>GIYU TOMIOKA</t>
+  </si>
+  <si>
+    <t>Água</t>
+  </si>
+  <si>
+    <t>SHINOBU</t>
+  </si>
+  <si>
+    <t>SHINOBU KOCHO</t>
+  </si>
+  <si>
+    <t>Desconhecido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,23 +114,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,15 +161,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,87 +471,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="1">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="1">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I5" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/src/pages/excel/dados.xlsx
+++ b/src/pages/excel/dados.xlsx
@@ -474,7 +474,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
